--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -519,7 +519,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -527,34 +527,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="58.4921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4440,273 +4441,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BB642B8-616F-4E5E-92F6-E2FE9F6537A3}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C01CA7-DCA7-4E3E-A02C-0391207D6C5D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CFB3A5-310B-4273-BE2F-5A0FD0956803}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -709,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -723,16 +729,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -743,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -769,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -789,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -809,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -829,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -840,19 +846,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
@@ -889,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
@@ -909,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -929,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -940,7 +946,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -949,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -960,16 +966,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -980,16 +986,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -1000,16 +1006,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1020,16 +1026,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -1040,16 +1046,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
@@ -1069,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1080,7 +1086,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -1089,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
@@ -1109,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -1120,16 +1126,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1140,16 +1146,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1160,16 +1166,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1180,16 +1186,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -1200,16 +1206,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
@@ -1220,16 +1226,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
@@ -1249,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -1269,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1280,19 +1286,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1300,16 +1306,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
@@ -1329,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
@@ -1349,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>47</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>48</v>
@@ -1369,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>49</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
@@ -1389,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -1400,16 +1406,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>53</v>
@@ -1420,16 +1426,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -1440,16 +1446,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>57</v>
@@ -1460,16 +1466,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -1480,16 +1486,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>61</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
@@ -1509,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
@@ -1529,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
@@ -1549,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1560,16 +1566,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
@@ -1580,16 +1586,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -1600,16 +1606,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -1640,16 +1646,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>77</v>
@@ -1660,16 +1666,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>79</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -1689,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>81</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
@@ -1709,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>83</v>
@@ -1723,16 +1729,16 @@
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1740,16 +1746,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>43</v>
@@ -1760,16 +1766,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>45</v>
@@ -1780,16 +1786,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
@@ -1800,16 +1806,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -1820,16 +1826,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1860,16 +1866,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1880,16 +1886,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1900,16 +1906,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -1920,16 +1926,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -1940,16 +1946,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -1980,16 +1986,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2000,16 +2006,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -2020,16 +2026,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -2040,16 +2046,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -2060,16 +2066,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -2080,16 +2086,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -2100,16 +2106,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -2120,16 +2126,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -2140,16 +2146,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
@@ -2163,16 +2169,16 @@
         <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2180,16 +2186,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
@@ -2200,16 +2206,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>45</v>
@@ -2220,16 +2226,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
@@ -2240,16 +2246,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
@@ -2260,16 +2266,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2280,16 +2286,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2300,16 +2306,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2320,16 +2326,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2340,16 +2346,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2360,16 +2366,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
@@ -2380,16 +2386,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2400,16 +2406,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
@@ -2420,16 +2426,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
@@ -2440,16 +2446,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2460,16 +2466,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2480,16 +2486,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2500,16 +2506,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2520,16 +2526,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2540,16 +2546,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2560,16 +2566,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2580,16 +2586,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2603,16 +2609,16 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2620,16 +2626,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>43</v>
@@ -2640,16 +2646,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>45</v>
@@ -2660,16 +2666,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>47</v>
@@ -2680,16 +2686,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>49</v>
@@ -2700,16 +2706,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>51</v>
@@ -2720,16 +2726,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>53</v>
@@ -2740,16 +2746,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -2760,16 +2766,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>57</v>
@@ -2780,16 +2786,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
@@ -2800,16 +2806,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>61</v>
@@ -2820,16 +2826,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>63</v>
@@ -2840,16 +2846,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>65</v>
@@ -2860,16 +2866,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>67</v>
@@ -2880,16 +2886,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -2900,16 +2906,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>71</v>
@@ -2920,16 +2926,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -2940,16 +2946,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -2960,16 +2966,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -2980,16 +2986,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -3000,16 +3006,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -3020,16 +3026,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -3043,16 +3049,16 @@
         <v>92</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3060,16 +3066,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -3080,16 +3086,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
@@ -3100,16 +3106,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>47</v>
@@ -3120,16 +3126,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -3140,16 +3146,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -3160,16 +3166,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3180,16 +3186,16 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3200,16 +3206,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3220,16 +3226,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3240,16 +3246,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3260,16 +3266,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3280,16 +3286,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3300,16 +3306,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3320,16 +3326,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3340,16 +3346,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3360,16 +3366,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3380,16 +3386,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3400,16 +3406,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3420,16 +3426,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>79</v>
@@ -3440,16 +3446,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>81</v>
@@ -3460,16 +3466,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>83</v>
@@ -3483,16 +3489,16 @@
         <v>94</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3560,16 +3566,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>99</v>
@@ -3580,16 +3586,16 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>101</v>
@@ -3600,19 +3606,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3620,19 +3626,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3640,19 +3646,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3660,19 +3666,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3700,16 +3706,16 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>99</v>
@@ -3720,16 +3726,16 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>101</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -3760,16 +3766,16 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>112</v>
@@ -3780,16 +3786,16 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>114</v>
@@ -3800,16 +3806,16 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>116</v>
@@ -3820,16 +3826,16 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>118</v>
@@ -3840,16 +3846,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>120</v>
@@ -3860,19 +3866,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -3880,19 +3886,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -3900,19 +3906,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -3920,19 +3926,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -3940,16 +3946,16 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>128</v>
@@ -3960,16 +3966,16 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>130</v>
@@ -3980,19 +3986,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4000,16 +4006,16 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>112</v>
@@ -4020,16 +4026,16 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>114</v>
@@ -4040,16 +4046,16 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>116</v>
@@ -4060,16 +4066,16 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>118</v>
@@ -4080,16 +4086,16 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>120</v>
@@ -4100,19 +4106,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4120,19 +4126,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4160,19 +4166,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4180,16 +4186,16 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>128</v>
@@ -4200,16 +4206,16 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>130</v>
@@ -4223,16 +4229,16 @@
         <v>133</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4240,16 +4246,16 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>138</v>
@@ -4260,16 +4266,16 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>140</v>
@@ -4280,16 +4286,16 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>142</v>
@@ -4300,16 +4306,16 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>144</v>
@@ -4320,16 +4326,16 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>146</v>
@@ -4340,16 +4346,16 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>148</v>
@@ -4360,16 +4366,16 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>150</v>
@@ -4383,16 +4389,16 @@
         <v>151</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>154</v>
@@ -4409,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>155</v>
@@ -4420,7 +4426,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>156</v>
@@ -4429,12 +4435,32 @@
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -419,7 +419,7 @@
     <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -556,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -80,9 +80,36 @@
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Data Evento</t>
   </si>
   <si>
@@ -137,9 +164,6 @@
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -266,7 +290,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -550,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -712,13 +736,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -729,13 +753,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -752,13 +776,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -769,16 +793,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -789,16 +813,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -809,13 +833,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -835,10 +859,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -849,16 +873,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -866,19 +890,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -886,19 +910,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -906,19 +930,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -926,19 +950,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -946,16 +970,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -966,7 +990,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
@@ -975,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -986,16 +1010,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -1006,16 +1030,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1026,16 +1050,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -1046,16 +1070,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -1066,16 +1090,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1086,16 +1110,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1106,16 +1130,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -1126,16 +1150,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1146,16 +1170,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1166,16 +1190,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1186,16 +1210,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -1206,16 +1230,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
@@ -1226,16 +1250,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1246,16 +1270,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1266,16 +1290,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1286,16 +1310,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
@@ -1306,19 +1330,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1326,19 +1350,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1346,19 +1370,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1366,19 +1390,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1386,16 +1410,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -1406,7 +1430,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
@@ -1415,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>53</v>
@@ -1426,16 +1450,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -1446,16 +1470,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>57</v>
@@ -1466,16 +1490,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -1486,16 +1510,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>61</v>
@@ -1506,16 +1530,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
@@ -1526,16 +1550,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
@@ -1546,16 +1570,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1566,16 +1590,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
@@ -1586,16 +1610,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -1606,16 +1630,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
@@ -1626,16 +1650,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -1646,16 +1670,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>77</v>
@@ -1666,16 +1690,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>79</v>
@@ -1686,16 +1710,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>81</v>
@@ -1706,16 +1730,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>83</v>
@@ -1726,16 +1750,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>85</v>
@@ -1746,19 +1770,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1766,19 +1790,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1786,19 +1810,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1806,19 +1830,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1826,16 +1850,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1846,16 +1870,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1866,16 +1890,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1886,16 +1910,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1906,16 +1930,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -1926,16 +1950,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -1946,16 +1970,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -1966,16 +1990,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -1986,16 +2010,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2006,16 +2030,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -2026,16 +2050,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -2046,16 +2070,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -2066,16 +2090,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -2086,16 +2110,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -2106,16 +2130,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -2126,16 +2150,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -2146,16 +2170,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
@@ -2166,16 +2190,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>85</v>
@@ -2186,19 +2210,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2206,19 +2230,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2226,19 +2250,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2246,19 +2270,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2266,16 +2290,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2286,16 +2310,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2306,16 +2330,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2326,16 +2350,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2346,16 +2370,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2366,16 +2390,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
@@ -2386,16 +2410,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2406,16 +2430,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
@@ -2426,16 +2450,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
@@ -2446,16 +2470,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2466,16 +2490,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2486,16 +2510,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2506,16 +2530,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2526,16 +2550,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2546,16 +2570,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2566,16 +2590,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2586,16 +2610,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2606,16 +2630,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>85</v>
@@ -2626,19 +2650,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2646,19 +2670,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2666,19 +2690,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2686,19 +2710,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2706,16 +2730,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>51</v>
@@ -2726,16 +2750,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>53</v>
@@ -2746,16 +2770,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -2766,16 +2790,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>57</v>
@@ -2786,16 +2810,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
@@ -2806,16 +2830,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>61</v>
@@ -2826,16 +2850,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>63</v>
@@ -2846,16 +2870,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>65</v>
@@ -2866,16 +2890,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>67</v>
@@ -2886,16 +2910,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -2906,16 +2930,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>71</v>
@@ -2926,16 +2950,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -2946,16 +2970,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -2966,16 +2990,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -2986,16 +3010,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -3006,16 +3030,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -3026,16 +3050,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -3046,16 +3070,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>85</v>
@@ -3066,19 +3090,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3086,19 +3110,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3106,19 +3130,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3126,19 +3150,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3146,16 +3170,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -3166,16 +3190,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3186,16 +3210,16 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3206,16 +3230,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3226,16 +3250,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3246,16 +3270,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3266,16 +3290,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3286,16 +3310,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3306,16 +3330,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3326,16 +3350,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3346,16 +3370,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3366,16 +3390,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3386,16 +3410,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3406,16 +3430,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3426,16 +3450,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>79</v>
@@ -3446,16 +3470,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>81</v>
@@ -3466,16 +3490,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>83</v>
@@ -3486,16 +3510,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>85</v>
@@ -3506,19 +3530,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3526,19 +3550,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3546,19 +3570,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3566,19 +3590,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3586,19 +3610,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3606,19 +3630,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3629,16 +3653,16 @@
         <v>104</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3649,16 +3673,16 @@
         <v>104</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3669,16 +3693,16 @@
         <v>104</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3689,16 +3713,16 @@
         <v>104</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3706,19 +3730,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3726,19 +3750,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -3746,19 +3770,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -3766,19 +3790,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -3786,19 +3810,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -3806,19 +3830,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -3826,19 +3850,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -3846,16 +3870,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>120</v>
@@ -3866,16 +3890,16 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>122</v>
@@ -3886,19 +3910,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -3906,19 +3930,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -3926,19 +3950,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -3946,19 +3970,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -3966,19 +3990,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -3986,19 +4010,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4006,19 +4030,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4026,19 +4050,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4046,19 +4070,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4066,19 +4090,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4086,16 +4110,16 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>120</v>
@@ -4106,16 +4130,16 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>122</v>
@@ -4126,19 +4150,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4146,19 +4170,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4166,19 +4190,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4186,19 +4210,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4206,19 +4230,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4226,19 +4250,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4246,19 +4270,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4266,19 +4290,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4286,19 +4310,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4306,19 +4330,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4326,16 +4350,16 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>146</v>
@@ -4346,16 +4370,16 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>148</v>
@@ -4366,16 +4390,16 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>150</v>
@@ -4386,16 +4410,16 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>152</v>
@@ -4406,19 +4430,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4426,19 +4450,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4446,21 +4470,101 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="F195" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F195" s="2" t="s">
+      <c r="D196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -119,24 +125,12 @@
     <t>dataEvento</t>
   </si>
   <si>
-    <t>Stato</t>
+    <t>Provincia</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
   </si>
   <si>
-    <t>idStato</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStato</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
     <t>idProvincia</t>
   </si>
   <si>
@@ -308,30 +302,48 @@
     <t>evento.datiEventoMatrimonio.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.testimone4</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4}</t>
+  </si>
+  <si>
     <t>Pubblicazioni</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,true}</t>
+  </si>
+  <si>
     <t>provincia</t>
   </si>
   <si>
@@ -359,6 +371,9 @@
     <t>riduzioneTerminiPubblicazione</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false}</t>
+  </si>
+  <si>
     <t>Provincia Comune</t>
   </si>
   <si>
@@ -453,6 +468,9 @@
   </si>
   <si>
     <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,false}</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -574,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -586,6 +604,7 @@
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="60.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -607,25 +626,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -647,1165 +672,1342 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1813,19 +2015,22 @@
         <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -1833,459 +2038,528 @@
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -2293,19 +2567,22 @@
         <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -2313,19 +2590,22 @@
         <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -2333,19 +2613,22 @@
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -2353,19 +2636,22 @@
         <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -2373,19 +2659,22 @@
         <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -2393,19 +2682,22 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="92">
@@ -2413,19 +2705,22 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -2433,19 +2728,22 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -2453,19 +2751,22 @@
         <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -2473,19 +2774,22 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2493,19 +2797,22 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -2513,19 +2820,22 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -2533,19 +2843,22 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -2553,19 +2866,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -2573,19 +2889,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2593,19 +2912,22 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -2613,19 +2935,22 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2633,19 +2958,22 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2653,19 +2981,22 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -2673,1899 +3004,2138 @@
         <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.3.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.3.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -673,4469 +676,4469 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -305,7 +305,7 @@
     <t>evento.datiEventoMatrimonio.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>flag firmatario</t>
@@ -317,7 +317,7 @@
     <t>evento.datiEventoMatrimonio.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -326,7 +326,7 @@
     <t>evento.datiEventoMatrimonio.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -335,7 +335,7 @@
     <t>evento.datiEventoMatrimonio.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Pubblicazioni</t>
@@ -344,7 +344,7 @@
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,true}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
   </si>
   <si>
     <t>provincia</t>
@@ -374,7 +374,7 @@
     <t>riduzioneTerminiPubblicazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false}</t>
+    <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
   </si>
   <si>
     <t>Provincia Comune</t>
@@ -473,7 +473,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,false}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -607,7 +607,7 @@
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="60.30859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="58.92578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -344,7 +344,7 @@
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true || evento.datiEventoMatrimonio.delegaConsolato,=,true</t>
   </si>
   <si>
     <t>provincia</t>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>omissionePubblicazione</t>
+  </si>
+  <si>
+    <t>Delega da consolato</t>
+  </si>
+  <si>
+    <t>delegaConsolato</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -607,7 +613,7 @@
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="58.92578125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="107.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5141,6 +5147,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,9 +308,6 @@
     <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
     <t>Testimone 2</t>
   </si>
   <si>
@@ -543,6 +540,30 @@
   </si>
   <si>
     <t>delegaConsolato</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -601,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -611,7 +632,7 @@
     <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="107.6875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2507,10 +2528,10 @@
         <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>96</v>
@@ -2527,7 +2548,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>48</v>
@@ -2536,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>50</v>
@@ -2545,12 +2566,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>51</v>
@@ -2559,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>52</v>
@@ -2568,12 +2589,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>53</v>
@@ -2582,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>54</v>
@@ -2591,12 +2612,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>55</v>
@@ -2605,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>56</v>
@@ -2614,12 +2635,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>57</v>
@@ -2628,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>58</v>
@@ -2637,12 +2658,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>59</v>
@@ -2651,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>60</v>
@@ -2660,12 +2681,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>61</v>
@@ -2674,7 +2695,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>62</v>
@@ -2683,12 +2704,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>63</v>
@@ -2697,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>64</v>
@@ -2706,12 +2727,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>65</v>
@@ -2720,7 +2741,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>66</v>
@@ -2729,12 +2750,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>67</v>
@@ -2743,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>68</v>
@@ -2752,12 +2773,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>69</v>
@@ -2766,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>70</v>
@@ -2775,12 +2796,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
@@ -2789,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>72</v>
@@ -2798,12 +2819,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>73</v>
@@ -2812,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>74</v>
@@ -2821,12 +2842,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>75</v>
@@ -2835,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>76</v>
@@ -2844,12 +2865,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>77</v>
@@ -2858,7 +2879,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>78</v>
@@ -2867,12 +2888,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>79</v>
@@ -2881,7 +2902,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>80</v>
@@ -2890,12 +2911,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>81</v>
@@ -2904,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>82</v>
@@ -2913,12 +2934,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
@@ -2927,7 +2948,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>84</v>
@@ -2936,12 +2957,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>85</v>
@@ -2950,7 +2971,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>86</v>
@@ -2959,12 +2980,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>87</v>
@@ -2973,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>88</v>
@@ -2982,12 +3003,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>89</v>
@@ -2996,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>90</v>
@@ -3005,21 +3026,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>92</v>
@@ -3028,12 +3049,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>48</v>
@@ -3042,7 +3063,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>50</v>
@@ -3051,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>51</v>
@@ -3065,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>52</v>
@@ -3074,12 +3095,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>53</v>
@@ -3088,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>54</v>
@@ -3097,12 +3118,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>55</v>
@@ -3111,7 +3132,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>56</v>
@@ -3120,12 +3141,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>57</v>
@@ -3134,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>58</v>
@@ -3143,12 +3164,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>59</v>
@@ -3157,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>60</v>
@@ -3166,12 +3187,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
@@ -3180,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>62</v>
@@ -3189,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>63</v>
@@ -3203,7 +3224,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>64</v>
@@ -3212,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>65</v>
@@ -3226,7 +3247,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>66</v>
@@ -3235,12 +3256,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>67</v>
@@ -3249,7 +3270,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>68</v>
@@ -3258,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>69</v>
@@ -3272,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>70</v>
@@ -3281,12 +3302,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>71</v>
@@ -3295,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>72</v>
@@ -3304,12 +3325,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>73</v>
@@ -3318,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>74</v>
@@ -3327,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>75</v>
@@ -3341,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>76</v>
@@ -3350,12 +3371,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>77</v>
@@ -3364,7 +3385,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>78</v>
@@ -3373,12 +3394,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>79</v>
@@ -3387,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>80</v>
@@ -3396,12 +3417,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>81</v>
@@ -3410,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>82</v>
@@ -3419,12 +3440,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>83</v>
@@ -3433,7 +3454,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>84</v>
@@ -3442,12 +3463,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>85</v>
@@ -3456,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>86</v>
@@ -3465,12 +3486,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>87</v>
@@ -3479,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>88</v>
@@ -3488,12 +3509,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>89</v>
@@ -3502,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>90</v>
@@ -3511,21 +3532,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>92</v>
@@ -3534,12 +3555,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>48</v>
@@ -3548,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>50</v>
@@ -3557,12 +3578,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>51</v>
@@ -3571,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>52</v>
@@ -3580,12 +3601,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>53</v>
@@ -3594,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>54</v>
@@ -3603,12 +3624,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>55</v>
@@ -3617,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>56</v>
@@ -3626,12 +3647,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>57</v>
@@ -3640,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>58</v>
@@ -3649,12 +3670,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>59</v>
@@ -3663,7 +3684,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>60</v>
@@ -3672,12 +3693,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>61</v>
@@ -3686,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>62</v>
@@ -3695,12 +3716,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>63</v>
@@ -3709,7 +3730,7 @@
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>64</v>
@@ -3718,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>65</v>
@@ -3732,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>66</v>
@@ -3741,12 +3762,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>67</v>
@@ -3755,7 +3776,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>68</v>
@@ -3764,12 +3785,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>69</v>
@@ -3778,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>70</v>
@@ -3787,12 +3808,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>71</v>
@@ -3801,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>72</v>
@@ -3810,12 +3831,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>73</v>
@@ -3824,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>74</v>
@@ -3833,12 +3854,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>75</v>
@@ -3847,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>76</v>
@@ -3856,12 +3877,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>77</v>
@@ -3870,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>78</v>
@@ -3879,12 +3900,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>79</v>
@@ -3893,7 +3914,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>80</v>
@@ -3902,12 +3923,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>81</v>
@@ -3916,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>82</v>
@@ -3925,12 +3946,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>83</v>
@@ -3939,7 +3960,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>84</v>
@@ -3948,12 +3969,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>85</v>
@@ -3962,7 +3983,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>86</v>
@@ -3971,12 +3992,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>87</v>
@@ -3985,7 +4006,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>88</v>
@@ -3994,12 +4015,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>89</v>
@@ -4008,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>90</v>
@@ -4017,21 +4038,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>92</v>
@@ -4040,12 +4061,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>38</v>
@@ -4054,7 +4075,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>40</v>
@@ -4063,12 +4084,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>41</v>
@@ -4077,21 +4098,21 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>43</v>
@@ -4100,7 +4121,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>44</v>
@@ -4109,12 +4130,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>45</v>
@@ -4123,70 +4144,70 @@
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
@@ -4195,27 +4216,27 @@
         <v>36</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>40</v>
@@ -4224,12 +4245,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>41</v>
@@ -4238,21 +4259,21 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>43</v>
@@ -4261,7 +4282,7 @@
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>44</v>
@@ -4270,12 +4291,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>45</v>
@@ -4284,79 +4305,79 @@
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4367,19 +4388,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4390,19 +4411,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4413,19 +4434,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4436,19 +4457,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4459,19 +4480,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4482,16 +4503,16 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>15</v>
@@ -4505,19 +4526,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4528,16 +4549,16 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>18</v>
@@ -4551,19 +4572,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4574,19 +4595,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4597,19 +4618,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4620,19 +4641,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4643,19 +4664,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4666,19 +4687,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4689,19 +4710,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4712,19 +4733,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4735,19 +4756,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4758,16 +4779,16 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>15</v>
@@ -4781,19 +4802,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4804,16 +4825,16 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>18</v>
@@ -4827,19 +4848,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4850,19 +4871,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4873,19 +4894,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4896,171 +4917,171 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5069,7 +5090,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5080,10 +5101,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5092,7 +5113,7 @@
         <v>36</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5103,10 +5124,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5115,7 +5136,7 @@
         <v>36</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5126,10 +5147,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5138,7 +5159,7 @@
         <v>36</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5149,10 +5170,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5161,12 +5182,81 @@
         <v>36</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
+      <c r="B199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -221,6 +221,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -434,22 +440,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto di Nascita della sposa</t>
@@ -622,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1266,7 +1272,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -1358,7 +1364,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1473,7 +1479,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
@@ -1519,7 +1525,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2045,22 +2051,22 @@
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -2068,2454 +2074,2454 @@
         <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4526,19 +4532,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4549,19 +4555,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4572,19 +4578,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4595,19 +4601,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4618,19 +4624,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4641,19 +4647,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4664,19 +4670,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4687,19 +4693,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4710,19 +4716,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4733,19 +4739,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4756,19 +4762,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4779,19 +4785,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4802,19 +4808,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4825,19 +4831,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4848,19 +4854,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4871,19 +4877,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4894,19 +4900,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4920,22 +4926,22 @@
         <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -4943,22 +4949,22 @@
         <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -4966,22 +4972,22 @@
         <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
@@ -4989,22 +4995,22 @@
         <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
@@ -5012,22 +5018,22 @@
         <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -5035,200 +5041,200 @@
         <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5239,24 +5245,162 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="C206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
+      <c r="B207" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -2353,7 +2353,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -2376,7 +2376,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
@@ -2882,7 +2882,7 @@
         <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>101</v>
@@ -2905,7 +2905,7 @@
         <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>101</v>
@@ -3411,7 +3411,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>104</v>
@@ -3434,7 +3434,7 @@
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>104</v>
@@ -3940,7 +3940,7 @@
         <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>107</v>
@@ -3963,7 +3963,7 @@
         <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -628,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1565,19 +1589,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1612,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1635,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1658,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1681,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1704,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1727,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1750,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1773,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1796,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1819,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1842,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1865,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1888,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1911,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1934,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1957,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1980,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1979,19 +2003,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2026,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2049,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2072,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2095,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2094,2468 +2118,2468 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>130</v>
@@ -4564,148 +4588,148 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4716,19 +4740,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4739,19 +4763,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4762,19 +4786,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4785,19 +4809,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4808,19 +4832,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4831,19 +4855,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4854,19 +4878,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4877,19 +4901,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4900,19 +4924,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4923,19 +4947,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4946,19 +4970,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4969,19 +4993,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -4992,19 +5016,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5015,19 +5039,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5038,19 +5062,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5061,180 +5085,180 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5245,162 +5269,346 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E207" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -368,10 +368,28 @@
     <t>Pubblicazioni</t>
   </si>
   <si>
+    <t>Riduzione dei termini</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true || evento.datiEventoMatrimonio.delegaConsolato,=,true</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true || evento.datiEventoMatrimonio.delegaConsolato,=,true</t>
+    <t>idNazione</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazione</t>
   </si>
   <si>
     <t>provincia</t>
@@ -380,6 +398,18 @@
     <t>comune</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Data Inizio</t>
   </si>
   <si>
@@ -392,22 +422,16 @@
     <t>dataFine</t>
   </si>
   <si>
-    <t>Pubblicazioni altro comune</t>
-  </si>
-  <si>
-    <t>Riduzione dei termini</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
+    <t>Pubblicazioni altro comune o consolato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
   </si>
   <si>
     <t>Provincia Comune</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>Atto di Nascita dello sposo</t>
@@ -652,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2883,7 +2907,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>109</v>
@@ -3412,7 +3436,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>112</v>
@@ -3941,7 +3965,7 @@
         <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>115</v>
@@ -4421,22 +4445,22 @@
         <v>117</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
@@ -4444,22 +4468,22 @@
         <v>117</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="166">
@@ -4467,22 +4491,22 @@
         <v>117</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
@@ -4490,22 +4514,22 @@
         <v>117</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
@@ -4513,22 +4537,22 @@
         <v>117</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
@@ -4536,151 +4560,151 @@
         <v>117</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>123</v>
@@ -4689,12 +4713,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>124</v>
@@ -4703,7 +4727,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>125</v>
@@ -4712,208 +4736,208 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4924,19 +4948,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4947,19 +4971,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4970,19 +4994,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4993,19 +5017,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5016,19 +5040,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5039,19 +5063,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5062,19 +5086,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5085,19 +5109,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5108,19 +5132,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5131,19 +5155,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5154,19 +5178,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5177,19 +5201,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5224,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5223,19 +5247,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5246,19 +5270,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5269,180 +5293,180 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5453,162 +5477,346 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,13 +233,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1136,7 +1142,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -1228,7 +1234,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -1343,7 +1349,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1435,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1550,7 +1556,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>49</v>
@@ -1596,7 +1602,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2329,7 +2335,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2338,13 +2344,13 @@
         <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2352,2730 +2358,2730 @@
         <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5086,19 +5092,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5109,19 +5115,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5132,19 +5138,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5155,19 +5161,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5178,19 +5184,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5201,19 +5207,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5224,19 +5230,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5247,19 +5253,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5270,19 +5276,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5293,19 +5299,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5316,19 +5322,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5339,19 +5345,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5362,19 +5368,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5385,19 +5391,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5408,19 +5414,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5431,19 +5437,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5454,19 +5460,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5480,22 +5486,22 @@
         <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -5503,22 +5509,22 @@
         <v>166</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -5526,22 +5532,22 @@
         <v>166</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212">
@@ -5549,22 +5555,22 @@
         <v>166</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -5572,22 +5578,22 @@
         <v>166</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214">
@@ -5595,200 +5601,200 @@
         <v>166</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5799,24 +5805,162 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
+      <c r="B229" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -682,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -935,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1418,7 +1424,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1441,7 +1447,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1579,7 +1585,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1625,7 +1631,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>49</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2381,7 +2387,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2390,13 +2396,13 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2404,2822 +2410,2822 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5230,19 +5236,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5253,19 +5259,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5276,19 +5282,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5299,19 +5305,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5322,19 +5328,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5345,19 +5351,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5368,19 +5374,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5391,19 +5397,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5414,19 +5420,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5437,19 +5443,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5460,19 +5466,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5483,19 +5489,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5506,19 +5512,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5529,19 +5535,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5552,19 +5558,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5575,19 +5581,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5598,19 +5604,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5624,22 +5630,22 @@
         <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -5647,22 +5653,22 @@
         <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
@@ -5670,22 +5676,22 @@
         <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
@@ -5693,22 +5699,22 @@
         <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -5716,22 +5722,22 @@
         <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
@@ -5739,200 +5745,200 @@
         <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5943,24 +5949,162 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="C234" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="B235" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -688,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1608,7 +1614,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1654,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>49</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1930,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2114,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2433,7 +2439,7 @@
         <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -2442,13 +2448,13 @@
         <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2456,2914 +2462,2914 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5374,19 +5380,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5397,19 +5403,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5420,19 +5426,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5443,19 +5449,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5466,19 +5472,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5489,19 +5495,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5512,19 +5518,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5535,19 +5541,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5558,19 +5564,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5581,19 +5587,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5604,19 +5610,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5627,19 +5633,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5650,19 +5656,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5673,19 +5679,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5696,19 +5702,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5719,19 +5725,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5742,19 +5748,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5768,22 +5774,22 @@
         <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
@@ -5791,22 +5797,22 @@
         <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223">
@@ -5814,22 +5820,22 @@
         <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
@@ -5837,22 +5843,22 @@
         <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -5860,22 +5866,22 @@
         <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
@@ -5883,200 +5889,200 @@
         <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6087,24 +6093,162 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="C240" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
+      <c r="B241" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5633,19 +5639,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5656,19 +5662,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5679,19 +5685,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5702,19 +5708,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5725,19 +5731,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5748,19 +5754,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5771,19 +5777,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5794,19 +5800,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5817,19 +5823,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5840,19 +5846,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5863,19 +5869,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5886,19 +5892,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5912,22 +5918,22 @@
         <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
@@ -5935,183 +5941,183 @@
         <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236">
@@ -6119,16 +6125,16 @@
         <v>191</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6139,10 +6145,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -6151,7 +6157,7 @@
         <v>36</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6162,10 +6168,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -6174,7 +6180,7 @@
         <v>36</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6185,19 +6191,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6208,19 +6214,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C240" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6231,24 +6237,70 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="C242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
+      <c r="B243" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -999,13 +1005,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1019,16 +1025,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1042,13 +1048,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1071,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1094,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1108,19 +1114,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1131,16 +1137,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1154,16 +1160,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1177,16 +1183,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1209,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1232,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1255,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1269,16 +1275,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1301,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1324,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1347,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1370,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1384,16 +1390,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1416,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1430,16 +1436,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1462,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1485,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1508,7 +1514,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1531,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1554,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1577,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1600,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1623,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1637,16 +1643,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1669,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1683,16 +1689,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1715,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1738,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1761,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1784,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1821,16 +1827,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1844,16 +1850,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1867,16 +1873,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1899,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1922,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1945,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1959,16 +1965,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1991,7 +1997,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2014,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2037,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2051,7 +2057,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2060,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2074,16 +2080,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2106,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2120,16 +2126,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2152,7 +2158,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2175,7 +2181,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2198,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2221,7 +2227,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2235,7 +2241,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2244,7 +2250,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2267,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2281,7 +2287,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2290,7 +2296,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2313,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2327,16 +2333,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2359,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2373,16 +2379,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2405,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2419,7 +2425,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2428,7 +2434,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2451,7 +2457,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2474,7 +2480,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2491,7 +2497,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2500,27 +2506,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2529,21 +2535,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2552,21 +2558,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2575,12 +2581,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2589,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2598,12 +2604,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2612,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2621,12 +2627,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2635,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2644,21 +2650,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2667,12 +2673,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2681,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2690,12 +2696,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2704,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2713,12 +2719,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2727,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2736,12 +2742,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2750,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2759,12 +2765,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2773,7 +2779,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2782,12 +2788,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2796,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2805,12 +2811,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2819,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2828,12 +2834,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2842,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2851,12 +2857,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2865,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2874,12 +2880,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2888,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2897,12 +2903,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2911,7 +2917,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2920,12 +2926,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2934,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2943,12 +2949,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2957,7 +2963,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2966,12 +2972,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2980,7 +2986,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2989,12 +2995,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -3003,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3012,21 +3018,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3035,12 +3041,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3049,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3058,21 +3064,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3081,44 +3087,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3127,21 +3133,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3150,21 +3156,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3173,12 +3179,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3187,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3196,12 +3202,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3210,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3219,12 +3225,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3233,7 +3239,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3242,21 +3248,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3265,12 +3271,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3279,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3288,12 +3294,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3302,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3311,12 +3317,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3325,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3334,12 +3340,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3348,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3357,12 +3363,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3371,7 +3377,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3380,12 +3386,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3394,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3403,12 +3409,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3417,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3426,12 +3432,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3440,7 +3446,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3449,12 +3455,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3463,7 +3469,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3472,12 +3478,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3486,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3495,12 +3501,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3509,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3518,12 +3524,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3532,7 +3538,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3541,12 +3547,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3555,7 +3561,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3564,12 +3570,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3578,7 +3584,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3587,12 +3593,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3601,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3610,21 +3616,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3633,12 +3639,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3647,7 +3653,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3656,21 +3662,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3679,44 +3685,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3725,21 +3731,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3748,21 +3754,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3771,12 +3777,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3785,7 +3791,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3794,12 +3800,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3808,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3817,12 +3823,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3831,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3840,21 +3846,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3863,12 +3869,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3877,7 +3883,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3886,12 +3892,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3900,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3909,12 +3915,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3923,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3932,12 +3938,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3946,7 +3952,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3955,12 +3961,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3969,7 +3975,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3978,12 +3984,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3992,7 +3998,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -4001,12 +4007,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4015,7 +4021,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4024,12 +4030,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4038,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4047,12 +4053,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4061,7 +4067,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4070,12 +4076,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4084,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4093,12 +4099,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4107,7 +4113,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4116,12 +4122,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4130,7 +4136,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4139,12 +4145,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4153,7 +4159,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4162,12 +4168,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4176,7 +4182,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4185,12 +4191,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4199,7 +4205,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4208,21 +4214,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4231,12 +4237,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4245,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4254,21 +4260,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4277,44 +4283,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4323,21 +4329,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4346,21 +4352,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4369,12 +4375,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4383,7 +4389,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4392,12 +4398,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4406,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4415,12 +4421,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4429,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4438,21 +4444,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4461,12 +4467,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4475,7 +4481,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4484,12 +4490,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4498,7 +4504,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4507,12 +4513,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4521,7 +4527,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4530,12 +4536,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4544,7 +4550,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4553,12 +4559,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4567,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4576,12 +4582,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4590,7 +4596,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4599,12 +4605,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4613,7 +4619,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4622,12 +4628,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4636,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4645,12 +4651,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4659,7 +4665,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4668,12 +4674,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4682,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4691,12 +4697,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4705,7 +4711,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4714,12 +4720,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4728,7 +4734,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4737,12 +4743,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4751,7 +4757,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4760,12 +4766,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4774,7 +4780,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4783,12 +4789,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4797,7 +4803,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4806,21 +4812,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4829,12 +4835,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4843,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4852,21 +4858,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4875,67 +4881,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4944,58 +4950,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -5004,21 +5010,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5027,30 +5033,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5059,12 +5065,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5073,7 +5079,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5082,12 +5088,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5096,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5105,12 +5111,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5119,7 +5125,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5128,44 +5134,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5174,58 +5180,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5234,21 +5240,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5257,30 +5263,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5289,12 +5295,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5303,7 +5309,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5312,12 +5318,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5326,7 +5332,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5335,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5349,7 +5355,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5358,44 +5364,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5409,7 +5415,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5418,7 +5424,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5432,7 +5438,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5441,7 +5447,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5455,7 +5461,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5464,7 +5470,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5487,7 +5493,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5510,10 +5516,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5530,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5547,7 +5553,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5556,10 +5562,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5570,19 +5576,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5593,7 +5599,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5602,7 +5608,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5616,7 +5622,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5625,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5648,7 +5654,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5662,19 +5668,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5685,16 +5691,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5708,7 +5714,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5717,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5731,7 +5737,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5740,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5763,7 +5769,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5777,7 +5783,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5786,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5809,10 +5815,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,19 +5829,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5846,7 +5852,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5855,10 +5861,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5869,19 +5875,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5892,7 +5898,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5901,7 +5907,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5915,7 +5921,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5924,7 +5930,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5938,7 +5944,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5947,7 +5953,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5964,50 +5970,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6016,7 +6022,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6025,12 +6031,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6039,7 +6045,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6048,12 +6054,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6062,7 +6068,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6071,12 +6077,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6085,7 +6091,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6094,12 +6100,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6108,7 +6114,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6117,21 +6123,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6140,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
@@ -6148,16 +6154,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6168,7 +6174,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6177,7 +6183,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6200,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6214,7 +6220,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>200</v>
@@ -6223,7 +6229,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>201</v>
@@ -6237,19 +6243,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6260,16 +6266,16 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6283,7 +6289,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>208</v>
@@ -6292,7 +6298,7 @@
         <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>209</v>
@@ -6301,6 +6307,52 @@
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -706,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1005,13 +999,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1025,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1048,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1077,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1100,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1114,19 +1108,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1137,16 +1131,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1160,16 +1154,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1183,16 +1177,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1215,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1229,7 +1223,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1238,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1261,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1275,16 +1269,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1307,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1330,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1344,7 +1338,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1353,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1367,7 +1361,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1376,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1390,16 +1384,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1422,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1436,16 +1430,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1459,7 +1453,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1468,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1491,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1514,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1537,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1551,7 +1545,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1560,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1574,7 +1568,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1583,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1606,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1629,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1643,16 +1637,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1666,7 +1660,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1675,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1689,16 +1683,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1721,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1735,7 +1729,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1744,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1758,7 +1752,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1767,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1781,7 +1775,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1790,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1804,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1827,16 +1821,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1850,16 +1844,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1873,16 +1867,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1896,7 +1890,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1905,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1919,7 +1913,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1928,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1951,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1965,16 +1959,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1988,7 +1982,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1997,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2020,7 +2014,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2034,7 +2028,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2043,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2057,7 +2051,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2066,7 +2060,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2080,16 +2074,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2112,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2126,16 +2120,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2149,7 +2143,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2158,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2172,7 +2166,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2181,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2195,7 +2189,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2204,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2227,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2241,7 +2235,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2250,7 +2244,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2273,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2287,7 +2281,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2296,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2310,7 +2304,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2319,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2333,16 +2327,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2356,7 +2350,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2365,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2379,16 +2373,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2402,7 +2396,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2411,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2425,7 +2419,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2434,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2448,7 +2442,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2457,7 +2451,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2480,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2497,7 +2491,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2506,27 +2500,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2535,21 +2529,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2558,21 +2552,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2581,12 +2575,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2595,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2604,12 +2598,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2618,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2627,12 +2621,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2641,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2650,21 +2644,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2673,12 +2667,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2687,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2696,12 +2690,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2710,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2719,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2733,7 +2727,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2742,12 +2736,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2756,7 +2750,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2765,12 +2759,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2779,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2788,12 +2782,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2802,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2811,12 +2805,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2825,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2834,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2848,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2857,12 +2851,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2871,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2880,12 +2874,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2894,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2903,12 +2897,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2917,7 +2911,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2926,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2940,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2949,12 +2943,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2963,7 +2957,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2972,12 +2966,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2986,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2995,12 +2989,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -3009,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3018,21 +3012,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3041,12 +3035,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3055,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3064,21 +3058,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3087,44 +3081,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3133,21 +3127,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3156,21 +3150,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3179,12 +3173,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3193,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3202,12 +3196,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3216,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3225,12 +3219,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3239,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3248,21 +3242,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3271,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3285,7 +3279,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3294,12 +3288,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3308,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3317,12 +3311,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3331,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3340,12 +3334,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3354,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3363,12 +3357,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3377,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3386,12 +3380,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3400,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3409,12 +3403,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3423,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3432,12 +3426,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3446,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3455,12 +3449,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3469,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3478,12 +3472,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3492,7 +3486,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3501,12 +3495,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3515,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3524,12 +3518,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3538,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3547,12 +3541,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3561,7 +3555,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3570,12 +3564,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3584,7 +3578,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3593,12 +3587,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3607,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3616,21 +3610,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3639,12 +3633,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3653,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3662,21 +3656,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3685,44 +3679,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3731,21 +3725,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3754,21 +3748,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3777,12 +3771,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3791,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3800,12 +3794,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3814,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3823,12 +3817,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3837,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3846,21 +3840,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3869,12 +3863,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3883,7 +3877,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3892,12 +3886,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3906,7 +3900,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3915,12 +3909,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3929,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3938,12 +3932,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3952,7 +3946,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3961,12 +3955,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3975,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3984,12 +3978,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3998,7 +3992,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -4007,12 +4001,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4021,7 +4015,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4030,12 +4024,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4044,7 +4038,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4053,12 +4047,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4067,7 +4061,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4076,12 +4070,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4090,7 +4084,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4099,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4113,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4122,12 +4116,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4136,7 +4130,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4145,12 +4139,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4159,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4168,12 +4162,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4182,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4191,12 +4185,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4205,7 +4199,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4214,21 +4208,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4237,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4251,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4260,21 +4254,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4283,44 +4277,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4329,21 +4323,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4352,21 +4346,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4375,12 +4369,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4389,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4398,12 +4392,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4412,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4421,12 +4415,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4435,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4444,21 +4438,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4467,12 +4461,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4481,7 +4475,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4490,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4504,7 +4498,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4513,12 +4507,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4527,7 +4521,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4536,12 +4530,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4550,7 +4544,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4559,12 +4553,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4573,7 +4567,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4582,12 +4576,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4596,7 +4590,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4605,12 +4599,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4619,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4628,12 +4622,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4642,7 +4636,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4651,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4665,7 +4659,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4674,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4688,7 +4682,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4697,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4711,7 +4705,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4720,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4734,7 +4728,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4743,12 +4737,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4757,7 +4751,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4766,12 +4760,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4780,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4789,12 +4783,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4803,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4812,21 +4806,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4835,12 +4829,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4849,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4858,21 +4852,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4881,67 +4875,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4950,58 +4944,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -5010,21 +5004,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5033,30 +5027,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5065,12 +5059,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5079,7 +5073,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5088,12 +5082,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5102,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5111,12 +5105,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5125,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5134,44 +5128,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5180,58 +5174,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5240,21 +5234,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5263,30 +5257,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5295,12 +5289,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5309,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5318,12 +5312,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5332,7 +5326,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5341,12 +5335,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5355,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5364,44 +5358,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5415,7 +5409,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5424,7 +5418,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5438,7 +5432,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5447,7 +5441,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5461,7 +5455,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5470,7 +5464,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5484,7 +5478,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5493,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5507,7 +5501,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5516,10 +5510,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5530,19 +5524,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5553,7 +5547,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5562,10 +5556,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5576,19 +5570,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5599,7 +5593,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5608,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5622,7 +5616,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5631,7 +5625,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5645,7 +5639,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5654,7 +5648,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5668,19 +5662,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5691,16 +5685,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5714,7 +5708,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5723,7 +5717,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5737,7 +5731,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5746,7 +5740,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5760,7 +5754,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5769,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5783,7 +5777,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5792,7 +5786,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5806,7 +5800,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5815,10 +5809,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5829,19 +5823,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5852,7 +5846,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5861,10 +5855,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5875,19 +5869,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5898,7 +5892,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5907,7 +5901,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5921,7 +5915,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5930,7 +5924,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5944,7 +5938,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5953,7 +5947,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5970,50 +5964,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6022,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6031,12 +6025,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6045,7 +6039,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6054,12 +6048,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6068,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6077,12 +6071,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6091,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6100,12 +6094,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6114,7 +6108,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6123,21 +6117,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6146,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
@@ -6154,16 +6148,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6174,7 +6168,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6183,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6197,7 +6191,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6206,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6220,7 +6214,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>200</v>
@@ -6229,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>201</v>
@@ -6243,19 +6237,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6266,16 +6260,16 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6289,7 +6283,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>208</v>
@@ -6298,7 +6292,7 @@
         <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>209</v>
@@ -6312,47 +6306,24 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E244" s="2" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -999,13 +1005,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1019,16 +1025,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1042,13 +1048,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1071,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1094,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1108,19 +1114,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1131,16 +1137,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1154,16 +1160,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1177,16 +1183,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1209,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1232,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1255,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1269,16 +1275,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1301,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1324,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1347,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1370,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1384,16 +1390,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1416,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1430,16 +1436,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1462,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1485,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1508,7 +1514,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1531,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1554,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1577,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1600,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1623,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1637,16 +1643,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1669,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1683,16 +1689,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1715,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1738,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1761,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1784,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1821,16 +1827,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1844,16 +1850,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1867,16 +1873,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1899,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1922,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1945,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1959,16 +1965,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1991,7 +1997,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2014,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2037,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2051,7 +2057,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2060,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2074,16 +2080,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2106,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2120,16 +2126,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2152,7 +2158,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2175,7 +2181,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2198,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2221,7 +2227,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2235,7 +2241,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2244,7 +2250,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2267,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2281,7 +2287,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2290,7 +2296,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2313,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2327,16 +2333,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2359,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2373,16 +2379,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2405,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2419,7 +2425,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2428,7 +2434,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2451,7 +2457,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2474,7 +2480,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2491,7 +2497,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2500,27 +2506,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2529,21 +2535,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2552,21 +2558,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2575,12 +2581,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2589,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2598,12 +2604,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2612,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2621,12 +2627,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2635,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2644,21 +2650,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2667,12 +2673,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2681,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2690,12 +2696,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2704,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2713,12 +2719,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2727,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2736,12 +2742,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2750,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2759,12 +2765,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2773,7 +2779,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2782,12 +2788,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2796,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2805,12 +2811,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2819,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2828,12 +2834,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2842,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2851,12 +2857,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2865,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2874,12 +2880,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2888,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2897,12 +2903,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2911,7 +2917,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2920,12 +2926,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2934,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2943,12 +2949,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2957,7 +2963,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2966,12 +2972,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2980,7 +2986,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2989,12 +2995,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -3003,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3012,21 +3018,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3035,12 +3041,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3049,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3058,21 +3064,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3081,44 +3087,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3127,21 +3133,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3150,21 +3156,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3173,12 +3179,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3187,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3196,12 +3202,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3210,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3219,12 +3225,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3233,7 +3239,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3242,21 +3248,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3265,12 +3271,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3279,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3288,12 +3294,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3302,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3311,12 +3317,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3325,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3334,12 +3340,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3348,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3357,12 +3363,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3371,7 +3377,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3380,12 +3386,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3394,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3403,12 +3409,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3417,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3426,12 +3432,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3440,7 +3446,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3449,12 +3455,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3463,7 +3469,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3472,12 +3478,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3486,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3495,12 +3501,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3509,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3518,12 +3524,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3532,7 +3538,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3541,12 +3547,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3555,7 +3561,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3564,12 +3570,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3578,7 +3584,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3587,12 +3593,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3601,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3610,21 +3616,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3633,12 +3639,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3647,7 +3653,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3656,21 +3662,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3679,44 +3685,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3725,21 +3731,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3748,21 +3754,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3771,12 +3777,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3785,7 +3791,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3794,12 +3800,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3808,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3817,12 +3823,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3831,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3840,21 +3846,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3863,12 +3869,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3877,7 +3883,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3886,12 +3892,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3900,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3909,12 +3915,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3923,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3932,12 +3938,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3946,7 +3952,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3955,12 +3961,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3969,7 +3975,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3978,12 +3984,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3992,7 +3998,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -4001,12 +4007,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4015,7 +4021,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4024,12 +4030,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4038,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4047,12 +4053,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4061,7 +4067,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4070,12 +4076,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4084,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4093,12 +4099,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4107,7 +4113,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4116,12 +4122,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4130,7 +4136,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4139,12 +4145,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4153,7 +4159,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4162,12 +4168,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4176,7 +4182,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4185,12 +4191,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4199,7 +4205,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4208,21 +4214,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4231,12 +4237,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4245,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4254,21 +4260,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4277,44 +4283,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4323,21 +4329,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4346,21 +4352,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4369,12 +4375,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4383,7 +4389,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4392,12 +4398,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4406,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4415,12 +4421,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4429,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4438,21 +4444,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4461,12 +4467,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4475,7 +4481,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4484,12 +4490,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4498,7 +4504,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4507,12 +4513,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4521,7 +4527,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4530,12 +4536,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4544,7 +4550,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4553,12 +4559,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4567,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4576,12 +4582,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4590,7 +4596,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4599,12 +4605,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4613,7 +4619,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4622,12 +4628,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4636,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4645,12 +4651,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4659,7 +4665,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4668,12 +4674,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4682,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4691,12 +4697,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4705,7 +4711,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4714,12 +4720,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4728,7 +4734,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4737,12 +4743,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4751,7 +4757,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4760,12 +4766,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4774,7 +4780,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4783,12 +4789,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4797,7 +4803,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4806,21 +4812,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4829,12 +4835,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4843,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4852,21 +4858,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4875,67 +4881,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4944,58 +4950,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -5004,21 +5010,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5027,30 +5033,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5059,12 +5065,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5073,7 +5079,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5082,12 +5088,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5096,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5105,12 +5111,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5119,7 +5125,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5128,44 +5134,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5174,58 +5180,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5234,21 +5240,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5257,30 +5263,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5289,12 +5295,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5303,7 +5309,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5312,12 +5318,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5326,7 +5332,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5335,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5349,7 +5355,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5358,44 +5364,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5409,7 +5415,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5418,7 +5424,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5432,7 +5438,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5441,7 +5447,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5455,7 +5461,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5464,7 +5470,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5487,7 +5493,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5510,10 +5516,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5530,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5547,7 +5553,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5556,10 +5562,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5570,19 +5576,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5593,7 +5599,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5602,7 +5608,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5616,7 +5622,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5625,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5648,7 +5654,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5662,19 +5668,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5685,16 +5691,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5708,7 +5714,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5717,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5731,7 +5737,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5740,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5763,7 +5769,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5777,7 +5783,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5786,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5809,10 +5815,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,19 +5829,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5846,7 +5852,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5855,10 +5861,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5869,19 +5875,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5892,7 +5898,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5901,7 +5907,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5915,7 +5921,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5924,7 +5930,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5938,7 +5944,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5947,7 +5953,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5964,50 +5970,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6016,7 +6022,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6025,12 +6031,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6039,7 +6045,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6048,12 +6054,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6062,7 +6068,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6071,12 +6077,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6085,7 +6091,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6094,12 +6100,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6108,7 +6114,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6117,21 +6123,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6140,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
@@ -6148,16 +6154,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6168,7 +6174,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6177,7 +6183,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6200,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6214,7 +6220,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>200</v>
@@ -6223,7 +6229,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>201</v>
@@ -6237,19 +6243,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6260,16 +6266,16 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6283,7 +6289,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>208</v>
@@ -6292,7 +6298,7 @@
         <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>209</v>
@@ -6306,24 +6312,47 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="C245" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -706,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1235,7 +1247,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -1258,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -1304,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -1327,7 +1339,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -1419,7 +1431,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1442,7 +1454,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>51</v>
@@ -1465,7 +1477,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>51</v>
@@ -1488,7 +1500,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>51</v>
@@ -1672,7 +1684,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>51</v>
@@ -1695,7 +1707,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
@@ -1718,7 +1730,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
@@ -1741,7 +1753,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1908,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1954,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1977,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2000,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2023,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2046,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2092,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2138,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2276,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2517,2411 +2529,2411 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4932,19 +4944,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4955,19 +4967,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4978,19 +4990,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5001,19 +5013,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5024,19 +5036,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5047,19 +5059,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5070,19 +5082,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5093,19 +5105,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5116,19 +5128,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5139,19 +5151,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5162,177 +5174,177 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5341,12 +5353,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5355,7 +5367,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5364,12 +5376,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>142</v>
@@ -5378,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5387,53 +5399,53 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206">
@@ -5441,22 +5453,22 @@
         <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -5464,22 +5476,22 @@
         <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -5487,22 +5499,22 @@
         <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="209">
@@ -5510,22 +5522,22 @@
         <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -5533,22 +5545,22 @@
         <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -5556,22 +5568,22 @@
         <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="212">
@@ -5579,22 +5591,22 @@
         <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -5602,22 +5614,22 @@
         <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="214">
@@ -5625,22 +5637,22 @@
         <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="215">
@@ -5648,39 +5660,39 @@
         <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5691,19 +5703,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5714,19 +5726,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5737,19 +5749,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5760,19 +5772,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5783,19 +5795,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5806,19 +5818,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5829,19 +5841,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5852,19 +5864,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5875,19 +5887,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5898,19 +5910,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5921,19 +5933,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5944,19 +5956,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5967,19 +5979,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
@@ -5990,180 +6002,180 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6174,19 +6186,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6197,19 +6209,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6220,19 +6232,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6243,19 +6255,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6266,93 +6278,369 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E245" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -718,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -780,63 +786,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -845,90 +851,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -937,21 +943,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -960,12 +966,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -974,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -983,21 +989,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -1006,21 +1012,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -1029,12 +1035,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -1043,53 +1049,53 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1098,21 +1104,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1121,21 +1127,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1144,44 +1150,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1190,21 +1196,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1213,12 +1219,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1236,21 +1242,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1259,21 +1265,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1282,12 +1288,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1296,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1305,21 +1311,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1328,21 +1334,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1351,21 +1357,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1374,21 +1380,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1397,21 +1403,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1420,21 +1426,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1443,21 +1449,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1466,12 +1472,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1489,21 +1495,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1512,21 +1518,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1535,21 +1541,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1558,21 +1564,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1581,21 +1587,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1604,21 +1610,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1627,21 +1633,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1650,21 +1656,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1673,21 +1679,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1696,21 +1702,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1719,12 +1725,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1733,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1742,21 +1748,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1765,21 +1771,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1788,21 +1794,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1811,21 +1817,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1834,21 +1840,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1857,21 +1863,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1880,44 +1886,44 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1926,21 +1932,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1949,12 +1955,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
@@ -1963,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1972,21 +1978,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1995,21 +2001,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -2018,12 +2024,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -2032,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -2041,21 +2047,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -2064,21 +2070,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -2087,21 +2093,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -2110,21 +2116,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -2133,21 +2139,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -2156,21 +2162,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2179,21 +2185,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2202,12 +2208,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2216,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2225,21 +2231,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2248,21 +2254,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2271,21 +2277,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2294,21 +2300,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2317,21 +2323,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2340,21 +2346,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2363,21 +2369,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2386,21 +2392,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2409,21 +2415,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2432,21 +2438,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2455,12 +2461,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2469,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2478,21 +2484,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2501,21 +2507,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2524,21 +2530,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2547,21 +2553,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2570,21 +2576,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2593,21 +2599,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2616,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2624,36 +2630,36 @@
         <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2662,21 +2668,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2685,12 +2691,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2699,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2708,21 +2714,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2731,21 +2737,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2754,12 +2760,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2768,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2777,21 +2783,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2800,21 +2806,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2823,21 +2829,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2846,21 +2852,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2869,21 +2875,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2892,21 +2898,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2915,21 +2921,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2938,21 +2944,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2961,21 +2967,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2984,21 +2990,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -3007,21 +3013,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -3030,21 +3036,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -3053,21 +3059,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -3076,21 +3082,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3099,21 +3105,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -3122,21 +3128,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3145,21 +3151,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -3168,21 +3174,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3191,12 +3197,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3205,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -3214,21 +3220,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3237,21 +3243,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3260,44 +3266,44 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>54</v>
@@ -3306,21 +3312,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3329,12 +3335,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
@@ -3343,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3352,21 +3358,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3375,21 +3381,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3398,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3412,7 +3418,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3421,21 +3427,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3444,21 +3450,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3467,21 +3473,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3490,21 +3496,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3513,21 +3519,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3536,21 +3542,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3559,21 +3565,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3582,21 +3588,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3605,21 +3611,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3628,21 +3634,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3651,21 +3657,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3674,21 +3680,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3697,21 +3703,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3720,21 +3726,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3743,21 +3749,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3766,21 +3772,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3789,21 +3795,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3812,21 +3818,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3835,12 +3841,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3849,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3858,21 +3864,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3881,21 +3887,21 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3904,44 +3910,44 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>54</v>
@@ -3950,21 +3956,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3973,12 +3979,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
@@ -3987,7 +3993,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -3996,21 +4002,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -4019,21 +4025,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -4042,12 +4048,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -4056,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -4065,21 +4071,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -4088,21 +4094,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -4111,21 +4117,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -4134,21 +4140,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -4157,21 +4163,21 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -4180,21 +4186,21 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -4203,21 +4209,21 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4226,21 +4232,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4249,21 +4255,21 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4272,21 +4278,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4295,21 +4301,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4318,21 +4324,21 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4341,21 +4347,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4364,21 +4370,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4387,21 +4393,21 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4410,21 +4416,21 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4433,21 +4439,21 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4456,21 +4462,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4479,12 +4485,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4493,7 +4499,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4502,21 +4508,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4525,21 +4531,21 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4548,44 +4554,44 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>54</v>
@@ -4594,21 +4600,21 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4617,12 +4623,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
@@ -4631,7 +4637,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4640,21 +4646,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4663,21 +4669,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4686,12 +4692,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4700,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4709,21 +4715,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4732,21 +4738,21 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4755,21 +4761,21 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4778,21 +4784,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4801,21 +4807,21 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4824,21 +4830,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4847,21 +4853,21 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4870,21 +4876,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4893,21 +4899,21 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4916,21 +4922,21 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4939,21 +4945,21 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4962,21 +4968,21 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4985,21 +4991,21 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -5008,21 +5014,21 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -5031,21 +5037,21 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -5054,21 +5060,21 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -5077,21 +5083,21 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -5100,21 +5106,21 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -5123,12 +5129,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -5137,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -5146,21 +5152,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -5169,21 +5175,21 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -5192,67 +5198,67 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>137</v>
@@ -5261,113 +5267,113 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5376,21 +5382,21 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5399,21 +5405,21 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>145</v>
@@ -5422,21 +5428,21 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>147</v>
@@ -5445,44 +5451,44 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>137</v>
@@ -5491,113 +5497,113 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>141</v>
@@ -5606,21 +5612,21 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>143</v>
@@ -5629,21 +5635,21 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>145</v>
@@ -5652,21 +5658,21 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>147</v>
@@ -5675,44 +5681,44 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>157</v>
@@ -5721,21 +5727,21 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>159</v>
@@ -5744,21 +5750,21 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>161</v>
@@ -5767,21 +5773,21 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>163</v>
@@ -5790,21 +5796,21 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>165</v>
@@ -5813,113 +5819,113 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>173</v>
@@ -5928,21 +5934,21 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>175</v>
@@ -5951,21 +5957,21 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>177</v>
@@ -5974,44 +5980,44 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>157</v>
@@ -6020,21 +6026,21 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>159</v>
@@ -6043,21 +6049,21 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>161</v>
@@ -6066,21 +6072,21 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>163</v>
@@ -6089,21 +6095,21 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>165</v>
@@ -6112,113 +6118,113 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>173</v>
@@ -6227,21 +6233,21 @@
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>175</v>
@@ -6250,21 +6256,21 @@
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>177</v>
@@ -6273,7 +6279,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242">
@@ -6281,59 +6287,59 @@
         <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E242" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>188</v>
@@ -6342,21 +6348,21 @@
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>190</v>
@@ -6365,21 +6371,21 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>192</v>
@@ -6388,21 +6394,21 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>194</v>
@@ -6411,21 +6417,21 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>196</v>
@@ -6434,12 +6440,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>197</v>
@@ -6448,7 +6454,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>198</v>
@@ -6457,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250">
@@ -6465,36 +6471,36 @@
         <v>199</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>203</v>
@@ -6503,21 +6509,21 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>205</v>
@@ -6526,21 +6532,21 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>207</v>
@@ -6549,44 +6555,44 @@
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>213</v>
@@ -6595,21 +6601,21 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>215</v>
@@ -6618,30 +6624,53 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>16</v>
+      <c r="B258" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -724,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1069,13 +1075,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -1089,16 +1095,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -1112,13 +1118,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1141,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1164,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1178,19 +1184,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1201,16 +1207,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1224,16 +1230,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1247,16 +1253,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1270,16 +1276,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1302,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1316,16 +1322,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1348,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1371,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1385,16 +1391,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1417,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1431,7 +1437,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1440,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1454,7 +1460,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1463,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1486,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1500,16 +1506,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1532,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1546,16 +1552,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1569,7 +1575,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1578,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1601,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1624,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1638,7 +1644,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1647,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1670,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1693,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1716,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1739,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1753,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1776,7 +1782,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1785,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1799,16 +1805,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1831,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1854,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1877,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1900,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1937,16 +1943,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1983,16 +1989,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -2006,16 +2012,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -2029,7 +2035,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -2038,7 +2044,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -2052,16 +2058,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -2084,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -2107,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -2121,16 +2127,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -2144,7 +2150,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
@@ -2153,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -2167,7 +2173,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
@@ -2176,7 +2182,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -2199,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2213,7 +2219,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2222,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2236,16 +2242,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2259,7 +2265,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2268,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2282,16 +2288,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2305,7 +2311,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2314,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2337,7 +2343,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2351,7 +2357,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
@@ -2360,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2383,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2397,7 +2403,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
@@ -2406,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2429,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2443,7 +2449,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2452,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2475,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2489,16 +2495,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2512,7 +2518,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
@@ -2521,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2535,16 +2541,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
@@ -2567,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2581,7 +2587,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
@@ -2590,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2604,7 +2610,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
@@ -2613,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2627,7 +2633,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>115</v>
@@ -2636,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>116</v>
@@ -2653,7 +2659,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2662,27 +2668,27 @@
         <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2691,21 +2697,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2714,21 +2720,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2737,21 +2743,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2760,12 +2766,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2774,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2783,21 +2789,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2806,12 +2812,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2820,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2829,12 +2835,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
@@ -2843,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2852,21 +2858,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2875,12 +2881,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
@@ -2889,7 +2895,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2898,12 +2904,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
@@ -2912,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2921,12 +2927,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -2935,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2944,12 +2950,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
@@ -2958,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2967,12 +2973,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
@@ -2981,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2990,12 +2996,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -3004,7 +3010,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -3013,12 +3019,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
@@ -3027,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -3036,12 +3042,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
@@ -3050,7 +3056,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -3059,12 +3065,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -3073,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -3082,12 +3088,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -3096,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3105,12 +3111,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -3119,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -3128,12 +3134,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -3142,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3151,12 +3157,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -3165,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -3174,12 +3180,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -3188,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3197,12 +3203,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3211,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -3220,21 +3226,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3243,12 +3249,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -3257,7 +3263,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3266,21 +3272,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>108</v>
@@ -3289,44 +3295,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3335,21 +3341,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3358,21 +3364,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3381,21 +3387,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3404,12 +3410,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3418,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3427,21 +3433,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3450,12 +3456,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
@@ -3464,7 +3470,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3473,12 +3479,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
@@ -3487,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3496,21 +3502,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3519,12 +3525,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
@@ -3533,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3542,12 +3548,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
@@ -3556,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3565,12 +3571,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
@@ -3579,7 +3585,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3588,12 +3594,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
@@ -3602,7 +3608,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3611,12 +3617,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
@@ -3625,7 +3631,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3634,12 +3640,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
@@ -3648,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3657,12 +3663,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
@@ -3671,7 +3677,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3680,12 +3686,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
@@ -3694,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3703,12 +3709,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
@@ -3717,7 +3723,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3726,12 +3732,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
@@ -3740,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3749,12 +3755,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
@@ -3763,7 +3769,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3772,12 +3778,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
@@ -3786,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3795,12 +3801,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
@@ -3809,7 +3815,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3818,12 +3824,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
@@ -3832,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3841,12 +3847,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3855,7 +3861,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3864,21 +3870,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3887,12 +3893,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
@@ -3901,7 +3907,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3910,21 +3916,21 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>108</v>
@@ -3933,44 +3939,44 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3979,21 +3985,21 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -4002,21 +4008,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -4025,21 +4031,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -4048,12 +4054,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -4062,7 +4068,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -4071,21 +4077,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -4094,12 +4100,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
@@ -4108,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -4117,12 +4123,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
@@ -4131,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -4140,21 +4146,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -4163,12 +4169,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
@@ -4177,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -4186,12 +4192,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
@@ -4200,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -4209,12 +4215,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
@@ -4223,7 +4229,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4232,12 +4238,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
@@ -4246,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4255,12 +4261,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
@@ -4269,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4278,12 +4284,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
@@ -4292,7 +4298,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4301,12 +4307,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4324,12 +4330,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
@@ -4338,7 +4344,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4347,12 +4353,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
@@ -4361,7 +4367,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4370,12 +4376,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
@@ -4384,7 +4390,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4393,12 +4399,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
@@ -4407,7 +4413,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4416,12 +4422,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
@@ -4430,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4439,12 +4445,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
@@ -4453,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4462,12 +4468,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
@@ -4476,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4485,12 +4491,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4499,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4508,21 +4514,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4531,12 +4537,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
@@ -4545,7 +4551,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4554,21 +4560,21 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>108</v>
@@ -4577,44 +4583,44 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4623,21 +4629,21 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4646,21 +4652,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4669,21 +4675,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4692,12 +4698,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4706,7 +4712,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4715,21 +4721,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4738,12 +4744,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
@@ -4752,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4761,12 +4767,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
@@ -4775,7 +4781,7 @@
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4784,21 +4790,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4807,12 +4813,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
@@ -4821,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4830,12 +4836,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
@@ -4844,7 +4850,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4853,12 +4859,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
@@ -4867,7 +4873,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4876,12 +4882,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
@@ -4890,7 +4896,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4899,12 +4905,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
@@ -4913,7 +4919,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4922,12 +4928,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
@@ -4936,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4945,12 +4951,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
@@ -4959,7 +4965,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4968,12 +4974,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
@@ -4982,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4991,12 +4997,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
@@ -5005,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -5014,12 +5020,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
@@ -5028,7 +5034,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -5037,12 +5043,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
@@ -5051,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -5060,12 +5066,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
@@ -5074,7 +5080,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -5083,12 +5089,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
@@ -5097,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -5106,12 +5112,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
@@ -5120,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -5129,12 +5135,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -5143,7 +5149,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -5152,21 +5158,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -5175,12 +5181,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
@@ -5189,7 +5195,7 @@
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -5198,21 +5204,21 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>108</v>
@@ -5221,67 +5227,67 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>139</v>
@@ -5290,58 +5296,58 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>47</v>
@@ -5350,21 +5356,21 @@
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>49</v>
@@ -5373,30 +5379,30 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5405,12 +5411,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>144</v>
@@ -5419,7 +5425,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>145</v>
@@ -5428,12 +5434,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>146</v>
@@ -5442,7 +5448,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>147</v>
@@ -5451,12 +5457,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>148</v>
@@ -5465,7 +5471,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>149</v>
@@ -5474,44 +5480,44 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>139</v>
@@ -5520,58 +5526,58 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>47</v>
@@ -5580,21 +5586,21 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>49</v>
@@ -5603,30 +5609,30 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>143</v>
@@ -5635,12 +5641,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>144</v>
@@ -5649,7 +5655,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>145</v>
@@ -5658,12 +5664,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>146</v>
@@ -5672,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>147</v>
@@ -5681,12 +5687,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>148</v>
@@ -5695,7 +5701,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>149</v>
@@ -5704,44 +5710,44 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>159</v>
@@ -5755,7 +5761,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>160</v>
@@ -5764,7 +5770,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>161</v>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>162</v>
@@ -5787,7 +5793,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>163</v>
@@ -5801,7 +5807,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>164</v>
@@ -5810,7 +5816,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>165</v>
@@ -5824,7 +5830,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>166</v>
@@ -5833,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>167</v>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>168</v>
@@ -5856,10 +5862,10 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5870,19 +5876,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>171</v>
@@ -5902,10 +5908,10 @@
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5916,19 +5922,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5939,7 +5945,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>174</v>
@@ -5948,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>175</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>176</v>
@@ -5971,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>177</v>
@@ -5985,7 +5991,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>178</v>
@@ -5994,7 +6000,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>179</v>
@@ -6008,19 +6014,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
@@ -6031,16 +6037,16 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>159</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>160</v>
@@ -6063,7 +6069,7 @@
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>161</v>
@@ -6077,7 +6083,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>162</v>
@@ -6086,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>163</v>
@@ -6100,7 +6106,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>164</v>
@@ -6109,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>165</v>
@@ -6123,7 +6129,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>166</v>
@@ -6132,7 +6138,7 @@
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>167</v>
@@ -6146,7 +6152,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>168</v>
@@ -6155,10 +6161,10 @@
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6169,19 +6175,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6192,7 +6198,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>171</v>
@@ -6201,10 +6207,10 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6215,19 +6221,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6238,7 +6244,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>174</v>
@@ -6247,7 +6253,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>175</v>
@@ -6261,7 +6267,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>176</v>
@@ -6270,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>177</v>
@@ -6284,7 +6290,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>178</v>
@@ -6293,7 +6299,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>179</v>
@@ -6310,50 +6316,50 @@
         <v>182</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E243" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>189</v>
@@ -6362,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>190</v>
@@ -6371,12 +6377,12 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>191</v>
@@ -6385,7 +6391,7 @@
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>192</v>
@@ -6394,12 +6400,12 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>193</v>
@@ -6408,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>194</v>
@@ -6417,12 +6423,12 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>195</v>
@@ -6431,7 +6437,7 @@
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>196</v>
@@ -6440,12 +6446,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>197</v>
@@ -6454,7 +6460,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>198</v>
@@ -6463,21 +6469,21 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>200</v>
@@ -6486,7 +6492,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="251">
@@ -6494,16 +6500,16 @@
         <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
@@ -6514,7 +6520,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>204</v>
@@ -6523,7 +6529,7 @@
         <v>13</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>205</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>206</v>
@@ -6546,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>207</v>
@@ -6560,7 +6566,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>208</v>
@@ -6569,7 +6575,7 @@
         <v>13</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>209</v>
@@ -6583,19 +6589,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="C255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -6606,16 +6612,16 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>215</v>
@@ -6629,7 +6635,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>216</v>
@@ -6638,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>217</v>
@@ -6652,24 +6658,47 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E258" s="2" t="s">
+      <c r="C259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="2" t="s">
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>19</v>
       </c>
     </row>
